--- a/survey_data.xlsx
+++ b/survey_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,22 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Q1 Satisfaction</t>
+          <t>Zone</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Q2 Recommend</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q3 Features Used</t>
+          <t>FAMILY</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q4 Feedback</t>
+          <t>COMMUNICATION</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>WORK/FAMILY BALANCE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>WORK-RESPECT</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MORALIS ASPECT</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KERALA FESTIVAl </t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HEALTH</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>EXERCISE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>AIM/DREAM</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>AS A SOCIAL WORKER</t>
         </is>
       </c>
     </row>
@@ -488,22 +528,62 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>RIYADH NORTH</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MURSALATH</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Maybe</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Multiple Times</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Satisfied</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Reports</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>asasasa</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
